--- a/report - MPH Capstone TA office hours - revised.xlsx
+++ b/report - MPH Capstone TA office hours - revised.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhorn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayod\Dropbox\GitHub\MPHcapstoneTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1733A5-D07C-4CBA-BBC6-924F312F7B6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,25 +735,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:XFD160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.69140625" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -798,7 +799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
@@ -821,7 +822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>100</v>
       </c>
@@ -844,7 +845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
@@ -867,7 +868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -890,7 +891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
@@ -913,7 +914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>100</v>
       </c>
@@ -936,7 +937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>110</v>
       </c>
@@ -959,7 +960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>110</v>
       </c>
@@ -982,7 +983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>106</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>91</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>91</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>100</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>100</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>91</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>91</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>91</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>91</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>91</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>91</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>106</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>106</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>48</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>48</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>48</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>48</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>48</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>48</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>48</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>48</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>48</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>100</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>100</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>100</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>100</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>100</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>100</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>100</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>100</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>110</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>110</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>110</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>110</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>110</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>110</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>110</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>110</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>110</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>110</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>110</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>110</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>110</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>48</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>48</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>106</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>110</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>110</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>110</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>110</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>110</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>110</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>110</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>110</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>110</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>110</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>110</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>110</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>110</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>48</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>48</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>48</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>48</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>48</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>48</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>106</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>106</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>106</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>106</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>106</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>106</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>106</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>106</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>106</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>106</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>106</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>106</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>106</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>106</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>100</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>6</v>
       </c>
@@ -4951,7 +4952,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>48</v>
       </c>
@@ -4964,7 +4965,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>91</v>
       </c>
@@ -4977,7 +4978,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>100</v>
       </c>
@@ -4990,7 +4991,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>106</v>
       </c>
@@ -5003,7 +5004,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>110</v>
       </c>
@@ -5017,9 +5018,10 @@
       <c r="G188" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M208">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M208">
     <sortCondition ref="G172"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>